--- a/Hardware_fabrication/Velvet ADC v1.1 02.10.2022/Velvet ADC v1 BOM.xlsx
+++ b/Hardware_fabrication/Velvet ADC v1.1 02.10.2022/Velvet ADC v1 BOM.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HighClassSystems\Projects\KazATU\Velvet\Hardware_fabrication\Velvet ADC v1.0 30.06.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvenecusghost\Documents\Velvet\Hardware_fabrication\Velvet ADC v1.1 02.10.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211FD25-523C-41EF-8574-873DA31FF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="30" yWindow="165" windowWidth="12750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -358,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +399,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -549,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -566,32 +575,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -791,6 +803,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -826,6 +855,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1001,11 +1047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,24 +1059,24 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="11" width="31.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="10" max="11" width="31.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1047,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1078,7 +1124,7 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1127,441 +1173,441 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <f>ROW(A5) - ROW($A$4)</f>
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19">
         <v>2</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="20">
         <f>L5*$C$2</f>
-        <v>2</v>
-      </c>
-      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="N5" s="20">
         <v>389345</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="20">
         <v>0.19</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="21">
         <f>M5*O5</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <f t="shared" ref="A6:A18" si="0">ROW(A6) - ROW($A$4)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24">
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="25">
         <f t="shared" ref="M6" si="1">L6*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
+        <v>6</v>
+      </c>
+      <c r="N6" s="25">
         <v>15672</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="25">
         <v>0.15</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="26">
         <f t="shared" ref="P6" si="2">M6*O6</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <f>ROW(A7) - ROW($A$4)</f>
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <v>1</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="20">
         <f>L7*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="12">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20">
         <v>1268974</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="20">
         <v>0.1</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="21">
         <f>M7*O7</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24">
         <v>1</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="25">
         <f t="shared" ref="M8" si="3">L8*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
+        <v>6</v>
+      </c>
+      <c r="N8" s="25">
         <v>8819195</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="25">
         <v>0.1</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="26">
         <f t="shared" ref="P8" si="4">M8*O8</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <f>ROW(A9) - ROW($A$4)</f>
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
         <v>5</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="20">
         <f>L9*$C$2</f>
-        <v>5</v>
-      </c>
-      <c r="N9" s="12">
+        <v>30</v>
+      </c>
+      <c r="N9" s="20">
         <v>1139</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="20">
         <v>3.28</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="21">
         <f>M9*O9</f>
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+        <v>98.399999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24">
         <v>3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="25">
         <f t="shared" ref="M10" si="5">L10*$C$2</f>
-        <v>3</v>
-      </c>
-      <c r="N10" s="6">
+        <v>18</v>
+      </c>
+      <c r="N10" s="25">
         <v>479904</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="25">
         <v>0.47</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="26">
         <f t="shared" ref="P10" si="6">M10*O10</f>
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+        <v>8.4599999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <f>ROW(A11) - ROW($A$4)</f>
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
         <v>4</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="20">
         <f>L11*$C$2</f>
-        <v>4</v>
-      </c>
-      <c r="N11" s="12">
+        <v>24</v>
+      </c>
+      <c r="N11" s="20">
         <v>851401</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="20">
         <v>0.37</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="21">
         <f>M11*O11</f>
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+        <v>8.879999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="24">
         <v>4</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="25">
         <f t="shared" ref="M12" si="7">L12*$C$2</f>
-        <v>4</v>
-      </c>
-      <c r="N12" s="21">
+        <v>24</v>
+      </c>
+      <c r="N12" s="13">
         <v>444</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22">
+      <c r="O12" s="13"/>
+      <c r="P12" s="14">
         <f t="shared" ref="P12" si="8">M12*O12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <f>ROW(A13) - ROW($A$4)</f>
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19">
         <v>2</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="20">
         <f>L13*$C$2</f>
-        <v>2</v>
-      </c>
-      <c r="N13" s="12">
+        <v>12</v>
+      </c>
+      <c r="N13" s="20">
         <v>12459544</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="20">
         <v>0.1</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="21">
         <f>M13*O13</f>
-        <v>0.2</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1594,7 +1640,7 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" ref="M14" si="9">L14*$C$2</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1603,253 +1649,253 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <f>ROW(A15) - ROW($A$4)</f>
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19">
         <v>1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="20">
         <f>L15*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="12">
+        <v>6</v>
+      </c>
+      <c r="N15" s="20">
         <v>28878</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="20">
         <v>0.21</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="21">
         <f>M15*O15</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24">
         <v>2</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="25">
         <f t="shared" ref="M16" si="11">L16*$C$2</f>
-        <v>2</v>
-      </c>
-      <c r="N16" s="6">
+        <v>12</v>
+      </c>
+      <c r="N16" s="25">
         <v>618947</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="25">
         <v>0.22</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="26">
         <f t="shared" ref="P16" si="12">M16*O16</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <f>ROW(A17) - ROW($A$4)</f>
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
         <v>1</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="20">
         <f>L17*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
+        <v>6</v>
+      </c>
+      <c r="N17" s="20">
         <v>814</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="20">
         <v>4.5</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="21">
         <f>M17*O17</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="24">
         <v>1</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="25">
         <f t="shared" ref="M18" si="13">L18*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="N18" s="21">
+        <v>6</v>
+      </c>
+      <c r="N18" s="13">
         <v>1550</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="13">
         <v>0.71</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="14">
         <f t="shared" ref="P18" si="14">M18*O18</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <f>ROW(A19) - ROW($A$4)</f>
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19">
         <v>5</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="20">
         <f>L19*$C$2</f>
-        <v>5</v>
-      </c>
-      <c r="N19" s="12">
+        <v>30</v>
+      </c>
+      <c r="N19" s="20">
         <v>3650</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="20">
         <v>0.12</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="21">
         <f>M19*O19</f>
-        <v>0.6</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1868,9 +1914,9 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="16">
+      <c r="P20" s="12">
         <f>SUM(P5:P19)</f>
-        <v>26.680000000000003</v>
+        <v>160.07999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1994,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2006,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
